--- a/Availability/test1.xlsx
+++ b/Availability/test1.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\david\OneDrive\Documents\Python\RA_Duty_Scheduler\Availability\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\david\OneDrive\Documents\MITRE\RA_Duty_Scheduler\Availability\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2949A66-5967-463A-A758-99AD20342F4B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96EC2554-D543-489A-80ED-628CEC3A8E47}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12552" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3102" yWindow="2010" windowWidth="17280" windowHeight="8994" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>RA Name</t>
   </si>
@@ -46,12 +46,6 @@
   </si>
   <si>
     <t>Foxtrot</t>
-  </si>
-  <si>
-    <t>N</t>
-  </si>
-  <si>
-    <t>n</t>
   </si>
 </sst>
 </file>
@@ -387,8 +381,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AF11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
-      <selection activeCell="Y2" sqref="Y2"/>
+    <sheetView tabSelected="1" topLeftCell="P1" workbookViewId="0">
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -498,57 +492,6 @@
       <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E2" t="s">
-        <v>8</v>
-      </c>
-      <c r="H2" t="s">
-        <v>8</v>
-      </c>
-      <c r="I2" t="s">
-        <v>8</v>
-      </c>
-      <c r="M2" t="s">
-        <v>8</v>
-      </c>
-      <c r="N2" t="s">
-        <v>8</v>
-      </c>
-      <c r="O2" t="s">
-        <v>8</v>
-      </c>
-      <c r="P2" t="s">
-        <v>8</v>
-      </c>
-      <c r="S2" t="s">
-        <v>8</v>
-      </c>
-      <c r="T2" t="s">
-        <v>8</v>
-      </c>
-      <c r="U2" t="s">
-        <v>8</v>
-      </c>
-      <c r="Y2" t="s">
-        <v>7</v>
-      </c>
-      <c r="AC2" t="s">
-        <v>8</v>
-      </c>
-      <c r="AE2" t="s">
-        <v>8</v>
-      </c>
-      <c r="AF2" t="s">
-        <v>8</v>
-      </c>
     </row>
     <row r="3" spans="1:32" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="3" t="s">
